--- a/biology/Zoologie/Euptychia_insolata/Euptychia_insolata.xlsx
+++ b/biology/Zoologie/Euptychia_insolata/Euptychia_insolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia insolata est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euptychia insolata a été décrit par Arthur Butler et Herbert Druce en 1872.
-Synonyme : Euptychia macrophthalma Staudinger, 1876[1].
-Nom vernaculaire
-Euptychia insolata se nomme Insolata Satyr en anglais[2].
+Synonyme : Euptychia macrophthalma Staudinger, 1876.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euptychia insolata est un papillon au dessus beige avec l'ornementation du revers un peu visible en transparence.
-Le revers est gris beige rayé de quatre lignes cuivrées, avec un gros ocelle noir cerclé de jaune et pupillé à l'apex de l'aile antérieure et un autre discret proche de lui et à l'aile postérieure un gros ocelle proche de l'angle anal et deux petits proches de l'apex tous noirs cerclés de jaune et pupillés.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia insolata se nomme Insolata Satyr en anglais.
 </t>
         </is>
       </c>
@@ -574,13 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Neckeropsis undulata[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia insolata est un papillon au dessus beige avec l'ornementation du revers un peu visible en transparence.
+Le revers est gris beige rayé de quatre lignes cuivrées, avec un gros ocelle noir cerclé de jaune et pupillé à l'apex de l'aile antérieure et un autre discret proche de lui et à l'aile postérieure un gros ocelle proche de l'angle anal et deux petits proches de l'apex tous noirs cerclés de jaune et pupillés.
 </t>
         </is>
       </c>
@@ -606,14 +625,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Neckeropsis undulata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_insolata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_insolata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia insolata est présent au Nicaragua, à Panama et au Costa Rica[1],[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia insolata est présent au Nicaragua, à Panama et au Costa Rica,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_insolata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_insolata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia insolata, sur Wikimedia CommonsEuptychia insolata, sur Wikispecies
 </t>
